--- a/public/U1.xlsx
+++ b/public/U1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HANNAN CODING\NEXT.js\bms-urpash\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D938A814-29B5-4792-82A7-5C6A348078E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06784EBC-F101-45B1-856B-1CAC83C103B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{EDE87D37-6CC1-440A-B645-24F1BA7D41A2}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="26">
   <si>
     <t>admission</t>
   </si>
@@ -100,6 +100,18 @@
   </si>
   <si>
     <t>MNO</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Max</t>
+  </si>
+  <si>
+    <t>Min</t>
+  </si>
+  <si>
+    <t>Percentage</t>
   </si>
 </sst>
 </file>
@@ -457,10 +469,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE08FCAA-3F6C-478E-A028-23DC316F9A5E}">
-  <dimension ref="A1:J6"/>
+  <dimension ref="A1:N6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -473,9 +485,11 @@
     <col min="8" max="8" width="11.44140625" customWidth="1"/>
     <col min="9" max="9" width="13.21875" customWidth="1"/>
     <col min="10" max="10" width="11.88671875" customWidth="1"/>
+    <col min="13" max="13" width="9.21875" customWidth="1"/>
+    <col min="14" max="14" width="20.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -506,8 +520,20 @@
       <c r="J1" t="s">
         <v>5</v>
       </c>
+      <c r="K1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1" t="s">
+        <v>23</v>
+      </c>
+      <c r="M1" t="s">
+        <v>24</v>
+      </c>
+      <c r="N1" t="s">
+        <v>25</v>
+      </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>17</v>
       </c>
@@ -521,25 +547,41 @@
         <v>100</v>
       </c>
       <c r="E2">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="G2">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="H2">
-        <v>23</v>
+        <v>49</v>
       </c>
       <c r="I2">
         <v>23</v>
       </c>
       <c r="J2">
-        <v>50</v>
+        <v>47</v>
+      </c>
+      <c r="K2">
+        <f>SUM(E2:J2)</f>
+        <v>240</v>
+      </c>
+      <c r="L2">
+        <f>MAX(E2:J2)</f>
+        <v>49</v>
+      </c>
+      <c r="M2">
+        <f>MIN(E2:J2)</f>
+        <v>23</v>
+      </c>
+      <c r="N2">
+        <f xml:space="preserve"> (K2/350*100)</f>
+        <v>68.571428571428569</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>18</v>
       </c>
@@ -565,13 +607,29 @@
         <v>23</v>
       </c>
       <c r="I3">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="J3">
+        <v>44</v>
+      </c>
+      <c r="K3">
+        <f t="shared" ref="K3:K6" si="0">SUM(E3:J3)</f>
+        <v>209</v>
+      </c>
+      <c r="L3">
+        <f t="shared" ref="L3:L6" si="1">MAX(E3:J3)</f>
         <v>50</v>
       </c>
+      <c r="M3">
+        <f t="shared" ref="M3:M6" si="2">MIN(E3:J3)</f>
+        <v>18</v>
+      </c>
+      <c r="N3">
+        <f xml:space="preserve"> (K3/350*100)</f>
+        <v>59.714285714285722</v>
+      </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>19</v>
       </c>
@@ -588,22 +646,38 @@
         <v>40</v>
       </c>
       <c r="F4">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="G4">
         <v>34</v>
       </c>
       <c r="H4">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="I4">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="J4">
-        <v>50</v>
+        <v>33</v>
+      </c>
+      <c r="K4">
+        <f t="shared" si="0"/>
+        <v>216</v>
+      </c>
+      <c r="L4">
+        <f t="shared" si="1"/>
+        <v>44</v>
+      </c>
+      <c r="M4">
+        <f t="shared" si="2"/>
+        <v>26</v>
+      </c>
+      <c r="N4">
+        <f xml:space="preserve"> (K4/350*100)</f>
+        <v>61.714285714285708</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>20</v>
       </c>
@@ -620,22 +694,38 @@
         <v>40</v>
       </c>
       <c r="F5">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="G5">
         <v>34</v>
       </c>
       <c r="H5">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="I5">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="J5">
-        <v>50</v>
+        <v>28</v>
+      </c>
+      <c r="K5">
+        <f t="shared" si="0"/>
+        <v>197</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="1"/>
+        <v>44</v>
+      </c>
+      <c r="M5">
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
+      <c r="N5">
+        <f xml:space="preserve"> (K4/350*100)</f>
+        <v>61.714285714285708</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>21</v>
       </c>
@@ -649,22 +739,38 @@
         <v>104</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="G6">
         <v>34</v>
       </c>
       <c r="H6">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="I6">
         <v>23</v>
       </c>
       <c r="J6">
-        <v>50</v>
+        <v>40</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="0"/>
+        <v>209</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="1"/>
+        <v>45</v>
+      </c>
+      <c r="M6">
+        <f t="shared" si="2"/>
+        <v>23</v>
+      </c>
+      <c r="N6">
+        <f xml:space="preserve"> (K6/350*100)</f>
+        <v>59.714285714285722</v>
       </c>
     </row>
   </sheetData>
